--- a/matlab_scripts/kerala-coordinates.xlsx
+++ b/matlab_scripts/kerala-coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nisha\Desktop\matlab_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67F74E4-2031-4D3A-A81F-DAFDD268FC41}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BBDBD3-5558-4BB3-894E-46B3111C0735}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -647,7 +647,7 @@
   <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
